--- a/exemplo.xlsx
+++ b/exemplo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/matheusk_al_insper_edu_br/Documents/OneDrive/5o Sem/TCMecSol/mecsol_pfinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EBE326F-D363-5347-9708-C61EEA8E1D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{4EBE326F-D363-5347-9708-C61EEA8E1D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A284A221-30FD-A94B-8755-333753911474}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+    <sheetView zoomScale="144" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
